--- a/Instances/05_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/05_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -3060,13 +3060,13 @@
         <v>39010</v>
       </c>
       <c r="D2" t="n">
-        <v>9.449999999999999</v>
+        <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>80872.74000000001</v>
+        <v>32.349096</v>
       </c>
       <c r="F2" t="n">
-        <v>37.8</v>
+        <v>0.01512</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>378</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.98</v>
+        <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>28485.54</v>
+        <v>11.394216</v>
       </c>
       <c r="F3" t="n">
-        <v>27.92</v>
+        <v>0.011168</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>279.2</v>
+        <v>0.11168</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3118,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.06</v>
+        <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>4575.8</v>
+        <v>1.83032</v>
       </c>
       <c r="F4" t="n">
-        <v>112.24</v>
+        <v>0.04489600000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1122.4</v>
+        <v>0.44896</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3147,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.75</v>
+        <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>40089.86</v>
+        <v>16.035944</v>
       </c>
       <c r="F5" t="n">
-        <v>111</v>
+        <v>0.0444</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1110</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>31.11</v>
+        <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>2550.36</v>
+        <v>1.020144</v>
       </c>
       <c r="F6" t="n">
-        <v>124.44</v>
+        <v>0.04977599999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1244.4</v>
+        <v>0.4977599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>36431.78</v>
+        <v>14.572712</v>
       </c>
       <c r="F7" t="n">
-        <v>128</v>
+        <v>0.0512</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1280</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3234,13 +3234,13 @@
         <v>39010</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>26193.6</v>
+        <v>10.47744</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>0.00128</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3263,13 +3263,13 @@
         <v>39010</v>
       </c>
       <c r="D9" t="n">
-        <v>1.24</v>
+        <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>40600.08</v>
+        <v>16.240032</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96</v>
+        <v>0.001984</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>49.6</v>
+        <v>0.01984</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3292,13 +3292,13 @@
         <v>39010</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>39290.4</v>
+        <v>15.71616</v>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>0.00192</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3321,13 +3321,13 @@
         <v>39010</v>
       </c>
       <c r="D11" t="n">
-        <v>0.85</v>
+        <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>27830.7</v>
+        <v>11.13228</v>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>0.00136</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3350,13 +3350,13 @@
         <v>39010</v>
       </c>
       <c r="D12" t="n">
-        <v>0.83</v>
+        <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>27175.86</v>
+        <v>10.870344</v>
       </c>
       <c r="F12" t="n">
-        <v>3.32</v>
+        <v>0.001328</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>33.2</v>
+        <v>0.01328</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3379,13 +3379,13 @@
         <v>39010</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
+        <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>38962.98</v>
+        <v>15.585192</v>
       </c>
       <c r="F13" t="n">
-        <v>4.76</v>
+        <v>0.001904</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47.59999999999999</v>
+        <v>0.01904</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3408,13 +3408,13 @@
         <v>2098</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03</v>
+        <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>1720.1</v>
+        <v>0.6880400000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>4.12</v>
+        <v>0.001648</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.2</v>
+        <v>0.01648</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3437,13 +3437,13 @@
         <v>21718</v>
       </c>
       <c r="D15" t="n">
-        <v>14.01</v>
+        <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>258400.44</v>
+        <v>103.360176</v>
       </c>
       <c r="F15" t="n">
-        <v>56.04</v>
+        <v>0.022416</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>560.4</v>
+        <v>0.22416</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3466,13 +3466,13 @@
         <v>19620</v>
       </c>
       <c r="D16" t="n">
-        <v>1.07</v>
+        <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>17948.18</v>
+        <v>7.179272000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>4.28</v>
+        <v>0.001712</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.8</v>
+        <v>0.01712</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3495,13 +3495,13 @@
         <v>39010</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83</v>
+        <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>27175.86</v>
+        <v>10.870344</v>
       </c>
       <c r="F17" t="n">
-        <v>3.32</v>
+        <v>0.001328</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>33.2</v>
+        <v>0.01328</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3524,13 +3524,13 @@
         <v>2022</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27</v>
+        <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>2037.08</v>
+        <v>0.814832</v>
       </c>
       <c r="F18" t="n">
-        <v>5.08</v>
+        <v>0.002032</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.8</v>
+        <v>0.02032</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3553,13 +3553,13 @@
         <v>17291</v>
       </c>
       <c r="D19" t="n">
-        <v>17.97</v>
+        <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>256935.06</v>
+        <v>102.774024</v>
       </c>
       <c r="F19" t="n">
-        <v>71.88</v>
+        <v>0.028752</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>718.8</v>
+        <v>0.28752</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3582,13 +3582,13 @@
         <v>15268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.88</v>
+        <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>11170.72</v>
+        <v>4.468288</v>
       </c>
       <c r="F20" t="n">
-        <v>3.52</v>
+        <v>0.001408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>0.01408</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3611,13 +3611,13 @@
         <v>906</v>
       </c>
       <c r="D21" t="n">
-        <v>29.25</v>
+        <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>840.14</v>
+        <v>0.336056</v>
       </c>
       <c r="F21" t="n">
-        <v>117</v>
+        <v>0.04680000000000001</v>
       </c>
       <c r="G21" t="n">
         <v>353</v>
@@ -3626,7 +3626,7 @@
         <v>395.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1170</v>
+        <v>0.4680000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3640,13 +3640,13 @@
         <v>1192</v>
       </c>
       <c r="D22" t="n">
-        <v>29.50999999999999</v>
+        <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>1397.8</v>
+        <v>0.55912</v>
       </c>
       <c r="F22" t="n">
-        <v>118.04</v>
+        <v>0.04721600000000001</v>
       </c>
       <c r="G22" t="n">
         <v>482</v>
@@ -3655,7 +3655,7 @@
         <v>450.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1180.4</v>
+        <v>0.4721600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3669,13 +3669,13 @@
         <v>8804</v>
       </c>
       <c r="D23" t="n">
-        <v>29.33</v>
+        <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>11850</v>
+        <v>4.74</v>
       </c>
       <c r="F23" t="n">
-        <v>117.32</v>
+        <v>0.046928</v>
       </c>
       <c r="G23" t="n">
         <v>3750</v>
@@ -3684,7 +3684,7 @@
         <v>2573.63</v>
       </c>
       <c r="I23" t="n">
-        <v>1173.2</v>
+        <v>0.46928</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3698,13 +3698,13 @@
         <v>10816</v>
       </c>
       <c r="D24" t="n">
-        <v>30.15</v>
+        <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>22257.6</v>
+        <v>8.903040000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>120.6</v>
+        <v>0.04824000000000001</v>
       </c>
       <c r="G24" t="n">
         <v>4637</v>
@@ -3713,7 +3713,7 @@
         <v>3043.73</v>
       </c>
       <c r="I24" t="n">
-        <v>1206</v>
+        <v>0.4824000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3727,13 +3727,13 @@
         <v>1102</v>
       </c>
       <c r="D25" t="n">
-        <v>32.55</v>
+        <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>1252.8</v>
+        <v>0.50112</v>
       </c>
       <c r="F25" t="n">
-        <v>130.2</v>
+        <v>0.05207999999999999</v>
       </c>
       <c r="G25" t="n">
         <v>435</v>
@@ -3742,7 +3742,7 @@
         <v>458.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1302</v>
+        <v>0.5207999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3756,13 +3756,13 @@
         <v>920</v>
       </c>
       <c r="D26" t="n">
-        <v>32.36</v>
+        <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>917.5</v>
+        <v>0.367</v>
       </c>
       <c r="F26" t="n">
-        <v>129.44</v>
+        <v>0.051776</v>
       </c>
       <c r="G26" t="n">
         <v>367</v>
@@ -3771,7 +3771,7 @@
         <v>367.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1294.4</v>
+        <v>0.51776</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3785,13 +3785,13 @@
         <v>6623</v>
       </c>
       <c r="D27" t="n">
-        <v>33.59</v>
+        <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>8881.74</v>
+        <v>3.552696000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>134.36</v>
+        <v>0.053744</v>
       </c>
       <c r="G27" t="n">
         <v>2793</v>
@@ -3800,7 +3800,7 @@
         <v>2048.39</v>
       </c>
       <c r="I27" t="n">
-        <v>1343.6</v>
+        <v>0.53744</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3814,13 +3814,13 @@
         <v>8644</v>
       </c>
       <c r="D28" t="n">
-        <v>33.98</v>
+        <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>14073.84</v>
+        <v>5.629536000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>135.92</v>
+        <v>0.054368</v>
       </c>
       <c r="G28" t="n">
         <v>3554</v>
@@ -3829,7 +3829,7 @@
         <v>3032.27</v>
       </c>
       <c r="I28" t="n">
-        <v>1359.2</v>
+        <v>0.5436799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/05_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2098</v>
+        <v>2811</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>21718</v>
+        <v>27163</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
@@ -3463,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>19620</v>
+        <v>24351</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39010</v>
+        <v>49429</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2022</v>
+        <v>2718</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>17291</v>
+        <v>22266</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>15268</v>
+        <v>19547</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>906</v>
+        <v>1239</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1192</v>
+        <v>1571</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>8804</v>
+        <v>10971</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>10816</v>
+        <v>13379</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1102</v>
+        <v>1488</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>920</v>
+        <v>1230</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>6623</v>
+        <v>8349</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>8644</v>
+        <v>11198</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>101721.6</v>
+        <v>254304</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67121.09999999999</v>
+        <v>167802.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2762116.1</v>
+        <v>6905290.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32742</v>
+        <v>81855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5436809.1</v>
+        <v>13592022.75</v>
       </c>
     </row>
   </sheetData>
